--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62D366-FBAD-4454-8A5C-D23ACBC8E859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7261985-0F24-544A-9B86-F5FC972CD7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1790,6 +1790,15 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1799,6 +1808,9 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1815,18 +1827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="14" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2875,42 +2875,42 @@
   </sheetPr>
   <dimension ref="A1:DW39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="65" max="73" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="105" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="113" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="127" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="65" max="73" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="105" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="113" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="127" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>43</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>36</v>
       </c>
@@ -2937,365 +2937,365 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135">
+      <c r="D3" s="126"/>
+      <c r="E3" s="130">
         <f>DATE(2022,1,27)</f>
         <v>44588</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="130"/>
     </row>
-    <row r="4" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="90">
         <v>1</v>
       </c>
-      <c r="I4" s="124">
+      <c r="I4" s="127">
         <f>I6</f>
         <v>44585</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="124">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="127">
         <f>P6</f>
         <v>44592</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="124">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="127">
         <f>W6</f>
         <v>44599</v>
       </c>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="124">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127">
         <f>AD6</f>
         <v>44606</v>
       </c>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="124">
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="127">
         <f>AK6</f>
         <v>44613</v>
       </c>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="125"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="124">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="127">
         <f>AR6</f>
         <v>44620</v>
       </c>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="124">
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="127">
         <f>AY6</f>
         <v>44627</v>
       </c>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="125"/>
-      <c r="BB4" s="125"/>
-      <c r="BC4" s="125"/>
-      <c r="BD4" s="125"/>
-      <c r="BE4" s="126"/>
-      <c r="BF4" s="124">
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="127">
         <f>BF6</f>
         <v>44634</v>
       </c>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="125"/>
-      <c r="BI4" s="125"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="125"/>
-      <c r="BL4" s="126"/>
-      <c r="BM4" s="124">
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="127">
         <f>BM6</f>
         <v>44641</v>
       </c>
-      <c r="BN4" s="125"/>
-      <c r="BO4" s="125"/>
-      <c r="BP4" s="125"/>
-      <c r="BQ4" s="125"/>
-      <c r="BR4" s="125"/>
-      <c r="BS4" s="126"/>
-      <c r="BT4" s="124">
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="129"/>
+      <c r="BT4" s="127">
         <f>BT6</f>
         <v>44648</v>
       </c>
-      <c r="BU4" s="125"/>
-      <c r="BV4" s="125"/>
-      <c r="BW4" s="125"/>
-      <c r="BX4" s="125"/>
-      <c r="BY4" s="125"/>
-      <c r="BZ4" s="126"/>
-      <c r="CA4" s="124">
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="127">
         <f>CA6</f>
         <v>44655</v>
       </c>
-      <c r="CB4" s="125"/>
-      <c r="CC4" s="125"/>
-      <c r="CD4" s="125"/>
-      <c r="CE4" s="125"/>
-      <c r="CF4" s="125"/>
-      <c r="CG4" s="126"/>
-      <c r="CH4" s="124">
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="129"/>
+      <c r="CH4" s="127">
         <f>CH6</f>
         <v>44662</v>
       </c>
-      <c r="CI4" s="125"/>
-      <c r="CJ4" s="125"/>
-      <c r="CK4" s="125"/>
-      <c r="CL4" s="125"/>
-      <c r="CM4" s="125"/>
-      <c r="CN4" s="126"/>
-      <c r="CO4" s="124">
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="129"/>
+      <c r="CO4" s="127">
         <f>CO6</f>
         <v>44669</v>
       </c>
-      <c r="CP4" s="125"/>
-      <c r="CQ4" s="125"/>
-      <c r="CR4" s="125"/>
-      <c r="CS4" s="125"/>
-      <c r="CT4" s="125"/>
-      <c r="CU4" s="126"/>
-      <c r="CV4" s="124">
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="129"/>
+      <c r="CV4" s="127">
         <f>CV6</f>
         <v>44676</v>
       </c>
-      <c r="CW4" s="125"/>
-      <c r="CX4" s="125"/>
-      <c r="CY4" s="125"/>
-      <c r="CZ4" s="125"/>
-      <c r="DA4" s="125"/>
-      <c r="DB4" s="126"/>
-      <c r="DC4" s="124">
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="129"/>
+      <c r="DC4" s="127">
         <f>DC6</f>
         <v>44683</v>
       </c>
-      <c r="DD4" s="125"/>
-      <c r="DE4" s="125"/>
-      <c r="DF4" s="125"/>
-      <c r="DG4" s="125"/>
-      <c r="DH4" s="125"/>
-      <c r="DI4" s="126"/>
-      <c r="DJ4" s="124">
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="128"/>
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="128"/>
+      <c r="DI4" s="129"/>
+      <c r="DJ4" s="127">
         <f>DJ6</f>
         <v>44690</v>
       </c>
-      <c r="DK4" s="125"/>
-      <c r="DL4" s="125"/>
-      <c r="DM4" s="125"/>
-      <c r="DN4" s="125"/>
-      <c r="DO4" s="125"/>
-      <c r="DP4" s="126"/>
-      <c r="DQ4" s="124">
+      <c r="DK4" s="128"/>
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="128"/>
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="129"/>
+      <c r="DQ4" s="127">
         <f>DQ6</f>
         <v>44697</v>
       </c>
-      <c r="DR4" s="125"/>
-      <c r="DS4" s="125"/>
-      <c r="DT4" s="125"/>
-      <c r="DU4" s="125"/>
-      <c r="DV4" s="125"/>
-      <c r="DW4" s="126"/>
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="128"/>
+      <c r="DT4" s="128"/>
+      <c r="DU4" s="128"/>
+      <c r="DV4" s="128"/>
+      <c r="DW4" s="129"/>
     </row>
-    <row r="5" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="C5" s="85"/>
       <c r="D5" s="89"/>
       <c r="E5" s="91"/>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="127" t="s">
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="127" t="s">
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="127" t="s">
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="127" t="s">
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="AL5" s="128"/>
-      <c r="AM5" s="128"/>
-      <c r="AN5" s="128"/>
-      <c r="AO5" s="128"/>
-      <c r="AP5" s="128"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="127" t="s">
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="133"/>
+      <c r="AR5" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="AS5" s="128"/>
-      <c r="AT5" s="128"/>
-      <c r="AU5" s="128"/>
-      <c r="AV5" s="128"/>
-      <c r="AW5" s="128"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="127" t="s">
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="132"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="AZ5" s="128"/>
-      <c r="BA5" s="128"/>
-      <c r="BB5" s="128"/>
-      <c r="BC5" s="128"/>
-      <c r="BD5" s="128"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="127" t="s">
+      <c r="AZ5" s="132"/>
+      <c r="BA5" s="132"/>
+      <c r="BB5" s="132"/>
+      <c r="BC5" s="132"/>
+      <c r="BD5" s="132"/>
+      <c r="BE5" s="133"/>
+      <c r="BF5" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="BG5" s="128"/>
-      <c r="BH5" s="128"/>
-      <c r="BI5" s="128"/>
-      <c r="BJ5" s="128"/>
-      <c r="BK5" s="128"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="127" t="s">
+      <c r="BG5" s="132"/>
+      <c r="BH5" s="132"/>
+      <c r="BI5" s="132"/>
+      <c r="BJ5" s="132"/>
+      <c r="BK5" s="132"/>
+      <c r="BL5" s="133"/>
+      <c r="BM5" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="BN5" s="128"/>
-      <c r="BO5" s="128"/>
-      <c r="BP5" s="128"/>
-      <c r="BQ5" s="128"/>
-      <c r="BR5" s="128"/>
-      <c r="BS5" s="129"/>
-      <c r="BT5" s="127" t="s">
+      <c r="BN5" s="132"/>
+      <c r="BO5" s="132"/>
+      <c r="BP5" s="132"/>
+      <c r="BQ5" s="132"/>
+      <c r="BR5" s="132"/>
+      <c r="BS5" s="133"/>
+      <c r="BT5" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="BU5" s="128"/>
-      <c r="BV5" s="128"/>
-      <c r="BW5" s="128"/>
-      <c r="BX5" s="128"/>
-      <c r="BY5" s="128"/>
-      <c r="BZ5" s="129"/>
-      <c r="CA5" s="127" t="s">
+      <c r="BU5" s="132"/>
+      <c r="BV5" s="132"/>
+      <c r="BW5" s="132"/>
+      <c r="BX5" s="132"/>
+      <c r="BY5" s="132"/>
+      <c r="BZ5" s="133"/>
+      <c r="CA5" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="CB5" s="128"/>
-      <c r="CC5" s="128"/>
-      <c r="CD5" s="128"/>
-      <c r="CE5" s="128"/>
-      <c r="CF5" s="128"/>
-      <c r="CG5" s="129"/>
-      <c r="CH5" s="127" t="s">
+      <c r="CB5" s="132"/>
+      <c r="CC5" s="132"/>
+      <c r="CD5" s="132"/>
+      <c r="CE5" s="132"/>
+      <c r="CF5" s="132"/>
+      <c r="CG5" s="133"/>
+      <c r="CH5" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="CI5" s="128"/>
-      <c r="CJ5" s="128"/>
-      <c r="CK5" s="128"/>
-      <c r="CL5" s="128"/>
-      <c r="CM5" s="128"/>
-      <c r="CN5" s="129"/>
-      <c r="CO5" s="127" t="s">
+      <c r="CI5" s="132"/>
+      <c r="CJ5" s="132"/>
+      <c r="CK5" s="132"/>
+      <c r="CL5" s="132"/>
+      <c r="CM5" s="132"/>
+      <c r="CN5" s="133"/>
+      <c r="CO5" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="CP5" s="128"/>
-      <c r="CQ5" s="128"/>
-      <c r="CR5" s="128"/>
-      <c r="CS5" s="128"/>
-      <c r="CT5" s="128"/>
-      <c r="CU5" s="129"/>
-      <c r="CV5" s="127" t="s">
+      <c r="CP5" s="132"/>
+      <c r="CQ5" s="132"/>
+      <c r="CR5" s="132"/>
+      <c r="CS5" s="132"/>
+      <c r="CT5" s="132"/>
+      <c r="CU5" s="133"/>
+      <c r="CV5" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="CW5" s="128"/>
-      <c r="CX5" s="128"/>
-      <c r="CY5" s="128"/>
-      <c r="CZ5" s="128"/>
-      <c r="DA5" s="128"/>
-      <c r="DB5" s="129"/>
-      <c r="DC5" s="127" t="s">
+      <c r="CW5" s="132"/>
+      <c r="CX5" s="132"/>
+      <c r="CY5" s="132"/>
+      <c r="CZ5" s="132"/>
+      <c r="DA5" s="132"/>
+      <c r="DB5" s="133"/>
+      <c r="DC5" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="DD5" s="128"/>
-      <c r="DE5" s="128"/>
-      <c r="DF5" s="128"/>
-      <c r="DG5" s="128"/>
-      <c r="DH5" s="128"/>
-      <c r="DI5" s="129"/>
-      <c r="DJ5" s="127" t="s">
+      <c r="DD5" s="132"/>
+      <c r="DE5" s="132"/>
+      <c r="DF5" s="132"/>
+      <c r="DG5" s="132"/>
+      <c r="DH5" s="132"/>
+      <c r="DI5" s="133"/>
+      <c r="DJ5" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="DK5" s="128"/>
-      <c r="DL5" s="128"/>
-      <c r="DM5" s="128"/>
-      <c r="DN5" s="128"/>
-      <c r="DO5" s="128"/>
-      <c r="DP5" s="129"/>
-      <c r="DQ5" s="127" t="s">
+      <c r="DK5" s="132"/>
+      <c r="DL5" s="132"/>
+      <c r="DM5" s="132"/>
+      <c r="DN5" s="132"/>
+      <c r="DO5" s="132"/>
+      <c r="DP5" s="133"/>
+      <c r="DQ5" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="DR5" s="128"/>
-      <c r="DS5" s="128"/>
-      <c r="DT5" s="128"/>
-      <c r="DU5" s="128"/>
-      <c r="DV5" s="128"/>
-      <c r="DW5" s="129"/>
+      <c r="DR5" s="132"/>
+      <c r="DS5" s="132"/>
+      <c r="DT5" s="132"/>
+      <c r="DU5" s="132"/>
+      <c r="DV5" s="132"/>
+      <c r="DW5" s="133"/>
     </row>
-    <row r="6" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>46</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>44703</v>
       </c>
     </row>
-    <row r="7" spans="1:127" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:127" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>47</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:127" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:127" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>42</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="DV8" s="44"/>
       <c r="DW8" s="44"/>
     </row>
-    <row r="9" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>48</v>
       </c>
@@ -4477,15 +4477,15 @@
       <c r="BC9" s="44"/>
       <c r="BD9" s="44"/>
       <c r="BE9" s="44"/>
-      <c r="BF9" s="130" t="s">
+      <c r="BF9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="BG9" s="131"/>
-      <c r="BH9" s="131"/>
-      <c r="BI9" s="131"/>
-      <c r="BJ9" s="131"/>
-      <c r="BK9" s="131"/>
-      <c r="BL9" s="132"/>
+      <c r="BG9" s="135"/>
+      <c r="BH9" s="135"/>
+      <c r="BI9" s="135"/>
+      <c r="BJ9" s="135"/>
+      <c r="BK9" s="135"/>
+      <c r="BL9" s="136"/>
       <c r="BM9" s="44"/>
       <c r="BN9" s="44"/>
       <c r="BO9" s="44"/>
@@ -4550,7 +4550,7 @@
       <c r="DV9" s="44"/>
       <c r="DW9" s="44"/>
     </row>
-    <row r="10" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>49</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="DV10" s="44"/>
       <c r="DW10" s="44"/>
     </row>
-    <row r="11" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>50</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="DV11" s="44"/>
       <c r="DW11" s="44"/>
     </row>
-    <row r="12" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="106"/>
       <c r="C12" s="102" t="s">
@@ -4954,7 +4954,7 @@
       <c r="DV12" s="44"/>
       <c r="DW12" s="44"/>
     </row>
-    <row r="13" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="106"/>
       <c r="C13" s="102" t="s">
@@ -5087,7 +5087,7 @@
       <c r="DV13" s="44"/>
       <c r="DW13" s="44"/>
     </row>
-    <row r="14" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="106"/>
       <c r="C14" s="102" t="s">
@@ -5221,7 +5221,7 @@
       <c r="DV14" s="44"/>
       <c r="DW14" s="44"/>
     </row>
-    <row r="15" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="106"/>
       <c r="C15" s="102" t="s">
@@ -5351,7 +5351,7 @@
       <c r="DV15" s="44"/>
       <c r="DW15" s="44"/>
     </row>
-    <row r="16" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="106"/>
       <c r="C16" s="102" t="s">
@@ -5482,7 +5482,7 @@
       <c r="DV16" s="44"/>
       <c r="DW16" s="44"/>
     </row>
-    <row r="17" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>51</v>
       </c>
@@ -5618,12 +5618,12 @@
       <c r="DV17" s="44"/>
       <c r="DW17" s="44"/>
     </row>
-    <row r="18" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="124" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="97"/>
@@ -5760,7 +5760,7 @@
       <c r="DV18" s="44"/>
       <c r="DW18" s="44"/>
     </row>
-    <row r="19" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="123" t="s">
         <v>6</v>
@@ -5902,7 +5902,7 @@
       <c r="DV19" s="44"/>
       <c r="DW19" s="44"/>
     </row>
-    <row r="20" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
       <c r="B20" s="123" t="s">
         <v>1</v>
@@ -6044,7 +6044,7 @@
       <c r="DV20" s="44"/>
       <c r="DW20" s="44"/>
     </row>
-    <row r="21" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="123" t="s">
         <v>2</v>
@@ -6178,7 +6178,7 @@
       <c r="DV21" s="44"/>
       <c r="DW21" s="44"/>
     </row>
-    <row r="22" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="123" t="s">
         <v>3</v>
@@ -6312,7 +6312,7 @@
       <c r="DV22" s="44"/>
       <c r="DW22" s="44"/>
     </row>
-    <row r="23" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>39</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="DV23" s="44"/>
       <c r="DW23" s="44"/>
     </row>
-    <row r="24" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
         <v>5</v>
@@ -6590,7 +6590,7 @@
       <c r="DV24" s="44"/>
       <c r="DW24" s="44"/>
     </row>
-    <row r="25" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="81" t="s">
         <v>6</v>
@@ -6732,7 +6732,7 @@
       <c r="DV25" s="44"/>
       <c r="DW25" s="44"/>
     </row>
-    <row r="26" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="81" t="s">
         <v>1</v>
@@ -6874,7 +6874,7 @@
       <c r="DV26" s="44"/>
       <c r="DW26" s="44"/>
     </row>
-    <row r="27" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="81" t="s">
         <v>2</v>
@@ -7016,7 +7016,7 @@
       <c r="DV27" s="44"/>
       <c r="DW27" s="44"/>
     </row>
-    <row r="28" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="81" t="s">
         <v>3</v>
@@ -7150,7 +7150,7 @@
       <c r="DV28" s="44"/>
       <c r="DW28" s="44"/>
     </row>
-    <row r="29" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>39</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="DV29" s="44"/>
       <c r="DW29" s="44"/>
     </row>
-    <row r="30" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
         <v>5</v>
@@ -7428,7 +7428,7 @@
       <c r="DV30" s="44"/>
       <c r="DW30" s="44"/>
     </row>
-    <row r="31" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
         <v>6</v>
@@ -7562,7 +7562,7 @@
       <c r="DV31" s="44"/>
       <c r="DW31" s="44"/>
     </row>
-    <row r="32" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="82" t="s">
         <v>1</v>
@@ -7696,7 +7696,7 @@
       <c r="DV32" s="44"/>
       <c r="DW32" s="44"/>
     </row>
-    <row r="33" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="82" t="s">
         <v>2</v>
@@ -7830,7 +7830,7 @@
       <c r="DV33" s="44"/>
       <c r="DW33" s="44"/>
     </row>
-    <row r="34" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="82" t="s">
         <v>3</v>
@@ -7964,7 +7964,7 @@
       <c r="DV34" s="44"/>
       <c r="DW34" s="44"/>
     </row>
-    <row r="35" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>41</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="DV35" s="44"/>
       <c r="DW35" s="44"/>
     </row>
-    <row r="36" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:127" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>40</v>
       </c>
@@ -8234,40 +8234,18 @@
       <c r="DV36" s="46"/>
       <c r="DW36" s="46"/>
     </row>
-    <row r="37" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="14"/>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="AY5:BE5"/>
-    <mergeCell ref="BF5:BL5"/>
-    <mergeCell ref="BM5:BS5"/>
-    <mergeCell ref="BT5:BZ5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="DJ5:DP5"/>
     <mergeCell ref="DQ4:DW4"/>
@@ -8284,6 +8262,28 @@
     <mergeCell ref="CH5:CN5"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="AY5:BE5"/>
+    <mergeCell ref="BF5:BL5"/>
+    <mergeCell ref="BM5:BS5"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="D8:D36">
@@ -8482,20 +8482,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>43</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>36</v>
       </c>
@@ -8522,116 +8522,116 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135">
+      <c r="D3" s="126"/>
+      <c r="E3" s="130">
         <f ca="1">TODAY()</f>
-        <v>44594</v>
-      </c>
-      <c r="F3" s="135"/>
+        <v>44595</v>
+      </c>
+      <c r="F3" s="130"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="124">
+      <c r="I4" s="127">
         <f ca="1">I5</f>
         <v>44592</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="124">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="127">
         <f ca="1">P5</f>
         <v>44599</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="124">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="127">
         <f ca="1">W5</f>
         <v>44606</v>
       </c>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="124">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127">
         <f ca="1">AD5</f>
         <v>44613</v>
       </c>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="124">
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="127">
         <f ca="1">AK5</f>
         <v>44620</v>
       </c>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="125"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="124">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="127">
         <f ca="1">AR5</f>
         <v>44627</v>
       </c>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="124">
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="127">
         <f ca="1">AY5</f>
         <v>44634</v>
       </c>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="125"/>
-      <c r="BB4" s="125"/>
-      <c r="BC4" s="125"/>
-      <c r="BD4" s="125"/>
-      <c r="BE4" s="126"/>
-      <c r="BF4" s="124">
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="127">
         <f ca="1">BF5</f>
         <v>44641</v>
       </c>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="125"/>
-      <c r="BI4" s="125"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="125"/>
-      <c r="BL4" s="126"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="129"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>47</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>42</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>48</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>49</v>
       </c>
@@ -9269,11 +9269,11 @@
       </c>
       <c r="E9" s="65">
         <f ca="1">Project_Start</f>
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="F9" s="65">
         <f ca="1">E9+3</f>
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -9337,7 +9337,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>50</v>
       </c>
@@ -9350,11 +9350,11 @@
       </c>
       <c r="E10" s="65">
         <f ca="1">F9</f>
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="F10" s="65">
         <f ca="1">E10+2</f>
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
@@ -9418,7 +9418,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>1</v>
@@ -9429,11 +9429,11 @@
       </c>
       <c r="E11" s="65">
         <f ca="1">F10</f>
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="F11" s="65">
         <f ca="1">E11+4</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
@@ -9497,7 +9497,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
         <v>2</v>
@@ -9508,11 +9508,11 @@
       </c>
       <c r="E12" s="65">
         <f ca="1">F11</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="F12" s="65">
         <f ca="1">E12+5</f>
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
@@ -9576,7 +9576,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="79" t="s">
         <v>3</v>
@@ -9585,11 +9585,11 @@
       <c r="D13" s="22"/>
       <c r="E13" s="65">
         <f ca="1">E10+1</f>
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="F13" s="65">
         <f ca="1">E13+2</f>
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
@@ -9653,7 +9653,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>51</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="80" t="s">
         <v>5</v>
@@ -9737,11 +9737,11 @@
       </c>
       <c r="E15" s="66">
         <f ca="1">E13+1</f>
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="F15" s="66">
         <f ca="1">E15+4</f>
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
@@ -9805,7 +9805,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>6</v>
@@ -9816,11 +9816,11 @@
       </c>
       <c r="E16" s="66">
         <f ca="1">E15+2</f>
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="F16" s="66">
         <f ca="1">E16+5</f>
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
@@ -9884,7 +9884,7 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>1</v>
@@ -9893,11 +9893,11 @@
       <c r="D17" s="27"/>
       <c r="E17" s="66">
         <f ca="1">F16</f>
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="F17" s="66">
         <f ca="1">E17+3</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
@@ -9961,7 +9961,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
         <v>2</v>
@@ -9970,11 +9970,11 @@
       <c r="D18" s="27"/>
       <c r="E18" s="66">
         <f ca="1">E17</f>
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="F18" s="66">
         <f ca="1">E18+2</f>
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
@@ -10038,7 +10038,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="80" t="s">
         <v>3</v>
@@ -10047,11 +10047,11 @@
       <c r="D19" s="27"/>
       <c r="E19" s="66">
         <f ca="1">E18</f>
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="F19" s="66">
         <f ca="1">E19+3</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
@@ -10115,7 +10115,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>39</v>
       </c>
@@ -10188,7 +10188,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>5</v>
@@ -10197,11 +10197,11 @@
       <c r="D21" s="32"/>
       <c r="E21" s="67">
         <f ca="1">E9+15</f>
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="F21" s="67">
         <f ca="1">E21+5</f>
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
@@ -10265,7 +10265,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
         <v>6</v>
@@ -10274,11 +10274,11 @@
       <c r="D22" s="32"/>
       <c r="E22" s="67">
         <f ca="1">F21+1</f>
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="F22" s="67">
         <f ca="1">E22+4</f>
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
@@ -10342,7 +10342,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
         <v>1</v>
@@ -10351,11 +10351,11 @@
       <c r="D23" s="32"/>
       <c r="E23" s="67">
         <f ca="1">E22+5</f>
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="F23" s="67">
         <f ca="1">E23+5</f>
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -10419,7 +10419,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
         <v>2</v>
@@ -10428,11 +10428,11 @@
       <c r="D24" s="32"/>
       <c r="E24" s="67">
         <f ca="1">F23+1</f>
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="F24" s="67">
         <f ca="1">E24+4</f>
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -10496,7 +10496,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="81" t="s">
         <v>3</v>
@@ -10505,11 +10505,11 @@
       <c r="D25" s="32"/>
       <c r="E25" s="67">
         <f ca="1">E23</f>
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="F25" s="67">
         <f ca="1">E25+4</f>
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -10573,7 +10573,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
         <v>39</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>5</v>
@@ -10721,7 +10721,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
         <v>6</v>
@@ -10796,7 +10796,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
         <v>1</v>
@@ -10871,7 +10871,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
         <v>2</v>
@@ -10946,7 +10946,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
         <v>3</v>
@@ -11021,7 +11021,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
         <v>41</v>
       </c>
@@ -11092,7 +11092,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>40</v>
       </c>
@@ -11165,29 +11165,29 @@
       <c r="BK33" s="46"/>
       <c r="BL33" s="46"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="14"/>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="1">
@@ -11261,31 +11261,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>29</v>
       </c>
@@ -11295,42 +11295,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
         <v>23</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>25</v>
       </c>
@@ -11359,35 +11359,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11675,27 +11646,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11714,4 +11694,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>